--- a/xls/itemsPieces.xlsx
+++ b/xls/itemsPieces.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FBG\Server\kbengine\fbgServer\xls\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27765" windowHeight="13650"/>
+    <workbookView xWindow="2790" yWindow="30" windowWidth="27765" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="@球员碎片表" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>id[!.][funcInt]</t>
   </si>
@@ -49,11 +44,213 @@
   </si>
   <si>
     <t>cardID[.][funcInt]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>合成球员的ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内马尔碎片</t>
+  </si>
+  <si>
+    <t>穆勒碎片</t>
+  </si>
+  <si>
+    <t>苏亚雷斯碎片</t>
+  </si>
+  <si>
+    <t>罗伊斯碎片</t>
+  </si>
+  <si>
+    <t>格列兹曼碎片</t>
+  </si>
+  <si>
+    <t>科克碎片</t>
+  </si>
+  <si>
+    <t>J罗碎片</t>
+  </si>
+  <si>
+    <t>贝尔碎片</t>
+  </si>
+  <si>
+    <t>博格巴碎片</t>
+  </si>
+  <si>
+    <t>厄齐尔碎片</t>
+  </si>
+  <si>
+    <t>亚亚图雷碎片</t>
+  </si>
+  <si>
+    <t>皮克碎片</t>
+  </si>
+  <si>
+    <t>拉姆碎片</t>
+  </si>
+  <si>
+    <t>博阿滕碎片</t>
+  </si>
+  <si>
+    <t>拉莫斯碎片</t>
+  </si>
+  <si>
+    <t>阿拉巴碎片</t>
+  </si>
+  <si>
+    <t>戈丁碎片</t>
+  </si>
+  <si>
+    <t>卡瓦哈尔碎片</t>
+  </si>
+  <si>
+    <t>诺伊尔碎片</t>
+  </si>
+  <si>
+    <t>鲁尼碎片</t>
+  </si>
+  <si>
+    <t>张玉宁碎片</t>
+  </si>
+  <si>
+    <t>奥巴梅杨碎片</t>
+  </si>
+  <si>
+    <t>拉希姆·斯特林碎片</t>
+  </si>
+  <si>
+    <t>费尔南多·托雷斯碎片</t>
+  </si>
+  <si>
+    <t>伊涅斯塔碎片</t>
+  </si>
+  <si>
+    <t>比达尔碎片</t>
+  </si>
+  <si>
+    <t>大卫·席尔瓦碎片</t>
+  </si>
+  <si>
+    <t>迪玛利亚碎片</t>
+  </si>
+  <si>
+    <t>佩佩碎片</t>
+  </si>
+  <si>
+    <t>阿尔巴碎片</t>
+  </si>
+  <si>
+    <t>博努奇碎片</t>
+  </si>
+  <si>
+    <t>基耶利尼碎片</t>
+  </si>
+  <si>
+    <t>胡安弗兰碎片</t>
+  </si>
+  <si>
+    <t>德赫亚碎片</t>
+  </si>
+  <si>
+    <t>库尔图瓦碎片</t>
+  </si>
+  <si>
+    <t>郑大世碎片</t>
+  </si>
+  <si>
+    <t>哈利勒碎片</t>
+  </si>
+  <si>
+    <t>卡希尔碎片</t>
+  </si>
+  <si>
+    <t>孙兴民碎片</t>
+  </si>
+  <si>
+    <t>林良铭碎片</t>
+  </si>
+  <si>
+    <t>本田圭佑碎片</t>
+  </si>
+  <si>
+    <t>奥马尔碎片</t>
+  </si>
+  <si>
+    <t>寄诚庸碎片</t>
+  </si>
+  <si>
+    <t>埃布埃碎片</t>
+  </si>
+  <si>
+    <t>长友佑都碎片</t>
+  </si>
+  <si>
+    <t>内田笃人碎片</t>
+  </si>
+  <si>
+    <t>郑智碎片</t>
+  </si>
+  <si>
+    <t>施瓦泽碎片</t>
+  </si>
+  <si>
+    <t>张稀哲碎片</t>
+  </si>
+  <si>
+    <t>张呈栋碎片</t>
+  </si>
+  <si>
+    <t>张莫斯碎片</t>
+  </si>
+  <si>
+    <t>郜林斯曼碎片</t>
+  </si>
+  <si>
+    <t>韦C罗碎片</t>
+  </si>
+  <si>
+    <t>于罗本碎片</t>
+  </si>
+  <si>
+    <t>毛纳尔彪碎片</t>
+  </si>
+  <si>
+    <t>邓卓翔碎片</t>
+  </si>
+  <si>
+    <t>李云在碎片</t>
+  </si>
+  <si>
+    <t>张飞碎片</t>
+  </si>
+  <si>
+    <t>赵云碎片</t>
+  </si>
+  <si>
+    <t>关羽碎片</t>
+  </si>
+  <si>
+    <t>黄忠碎片</t>
+  </si>
+  <si>
+    <t>马超碎片</t>
+  </si>
+  <si>
+    <t>诸葛亮碎片</t>
+  </si>
+  <si>
+    <t>王朗碎片</t>
+  </si>
+  <si>
+    <t>孙尚香碎片</t>
+  </si>
+  <si>
+    <t>孙策碎片</t>
+  </si>
+  <si>
+    <t>孙坚碎片</t>
+  </si>
+  <si>
+    <t>周瑜碎片</t>
   </si>
 </sst>
 </file>
@@ -113,74 +310,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -193,14 +322,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -235,7 +364,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,47 +608,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="26.125" customWidth="1"/>
-    <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="1" max="2" width="26.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
-        <v>106001</v>
+        <v>106101</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -527,13 +658,13 @@
       <c r="C3" s="2">
         <v>20</v>
       </c>
-      <c r="D3">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>106002</v>
+        <v>106102</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -541,8 +672,960 @@
       <c r="C4" s="2">
         <v>20</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>106103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>106104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>106105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>106106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>106107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>106108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>106109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>106110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>106111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>106112</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>106113</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>106114</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>106115</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>106116</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>106117</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>106118</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>106119</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="1">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>106120</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>106121</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>106201</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="1">
+        <v>20</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>106202</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>106203</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>106204</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>106205</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>106206</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1">
+        <v>20</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>106207</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>106208</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="1">
+        <v>20</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>106209</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>106210</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20</v>
+      </c>
+      <c r="D33" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>106211</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1">
+        <v>20</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>106212</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>106213</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>106214</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1">
+        <v>20</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>106215</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>106216</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>106301</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1">
+        <v>20</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>106302</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>106303</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>106304</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="1">
+        <v>20</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>106305</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>106306</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1">
+        <v>20</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>106307</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20</v>
+      </c>
+      <c r="D46" s="1">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>106308</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="1">
+        <v>20</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>106309</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1">
+        <v>20</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>106310</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>106311</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>106312</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="1">
+        <v>20</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>106313</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="1">
+        <v>20</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>106401</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>106402</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="1">
+        <v>20</v>
+      </c>
+      <c r="D54" s="1">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>106403</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>20</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>106404</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20</v>
+      </c>
+      <c r="D56" s="1">
+        <v>4004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>106405</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="1">
+        <v>20</v>
+      </c>
+      <c r="D57" s="1">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>106406</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="1">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>106407</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="1">
+        <v>20</v>
+      </c>
+      <c r="D59" s="1">
+        <v>4007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>106408</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" s="1">
+        <v>20</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>106409</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="1">
+        <v>20</v>
+      </c>
+      <c r="D61" s="1">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>106501</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="1">
+        <v>20</v>
+      </c>
+      <c r="D62" s="1">
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>106502</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="1">
+        <v>20</v>
+      </c>
+      <c r="D63" s="1">
+        <v>5002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>106503</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="1">
+        <v>20</v>
+      </c>
+      <c r="D64" s="1">
+        <v>5003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>106504</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="1">
+        <v>20</v>
+      </c>
+      <c r="D65" s="1">
+        <v>5004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>106505</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" s="1">
+        <v>20</v>
+      </c>
+      <c r="D66" s="1">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>106506</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="1">
+        <v>20</v>
+      </c>
+      <c r="D67" s="1">
+        <v>5006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>106507</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1">
+        <v>20</v>
+      </c>
+      <c r="D68" s="1">
+        <v>5007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>106508</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="1">
+        <v>20</v>
+      </c>
+      <c r="D69" s="1">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>106509</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="1">
+        <v>20</v>
+      </c>
+      <c r="D70" s="1">
+        <v>5009</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>106510</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="1">
+        <v>20</v>
+      </c>
+      <c r="D71" s="1">
+        <v>5010</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>106511</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C72" s="1">
+        <v>20</v>
+      </c>
+      <c r="D72" s="1">
+        <v>5011</v>
       </c>
     </row>
   </sheetData>
@@ -554,6 +1637,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -603,6 +1687,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/xls/itemsPieces.xlsx
+++ b/xls/itemsPieces.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>id[!.][funcInt]</t>
   </si>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>周瑜碎片</t>
+  </si>
+  <si>
+    <t>测试周瑜碎片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -609,10 +613,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1626,6 +1630,20 @@
       </c>
       <c r="D72" s="1">
         <v>5011</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>106512</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C73" s="1">
+        <v>20</v>
+      </c>
+      <c r="D73" s="1">
+        <v>5012</v>
       </c>
     </row>
   </sheetData>
